--- a/data/trans_camb/P22_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P22_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>10,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>8,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>17,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-6,9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,07</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,51</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,66</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 14,66</t>
+          <t>-13,66; 32,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 10,56</t>
+          <t>-15,57; 28,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 18,02</t>
+          <t>-7,8; 39,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 17,64</t>
+          <t>-16,71; 22,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 13,07</t>
+          <t>-18,12; 22,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 7,98</t>
+          <t>-29,02; 12,29</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,05; 20,45</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-11,41; 18,97</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 19,87</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,44%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-21,1%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>64,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,72%</t>
+          <t>-18,45%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18,53%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13,79%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,33; 80,01</t>
+          <t>-36,53; 222,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 57,33</t>
+          <t>-42,43; 196,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,15; 54,51</t>
+          <t>-21,64; 258,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 55,89</t>
+          <t>-34,51; 88,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 50,31</t>
+          <t>-38,92; 81,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 28,51</t>
+          <t>-60,54; 44,21</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-22,93; 85,03</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-29,41; 74,2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-25,84; 84,72</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,55</t>
+          <t>-7,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,78</t>
+          <t>-17,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>-15,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,03</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,31</t>
+          <t>-6,03</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-5,28</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-12,52</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-10,36</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 13,82</t>
+          <t>-37,43; 18,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,98; 8,45</t>
+          <t>-45,12; 12,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 15,17</t>
+          <t>-45,8; 15,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 3,62</t>
+          <t>-22,1; 14,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 10,27</t>
+          <t>-25,65; 9,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 3,52</t>
+          <t>-23,46; 14,16</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-23,58; 13,11</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-28,93; 8,65</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-30,16; 10,63</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,61%</t>
+          <t>-16,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-24,5%</t>
+          <t>-35,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>-31,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-25,83%</t>
+          <t>-9,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,72%</t>
+          <t>-21,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,84%</t>
+          <t>-15,19%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-12,06%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-28,59%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-23,66%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,61; 42,24</t>
+          <t>-62,22; 58,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,54; 28,6</t>
+          <t>-76,13; 42,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,21; 54,71</t>
+          <t>-75,5; 46,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,78; 14,63</t>
+          <t>-45,76; 46,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,57; 33,78</t>
+          <t>-53,67; 32,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,57; 10,72</t>
+          <t>-49,66; 50,99</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-44,07; 39,47</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-57,23; 25,7</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-59,43; 32,11</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-11,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>-12,91</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-5,61</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-5,29</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 16,08</t>
+          <t>-28,61; 4,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 27,21</t>
+          <t>-22,35; 12,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 6,12</t>
+          <t>-29,18; 4,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 6,6</t>
+          <t>-14,14; 11,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 6,59</t>
+          <t>-11,39; 15,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 12,38</t>
+          <t>-12,57; 14,54</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-15,8; 5,85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-11,48; 9,67</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-15,92; 6,89</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>-27,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>-10,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,33%</t>
+          <t>-31,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,46%</t>
+          <t>-5,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,85%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-14,17%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-2,57%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-13,38%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 62,28</t>
+          <t>-59,67; 12,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 108,64</t>
+          <t>-46,71; 42,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,0; 16,93</t>
+          <t>-61,89; 17,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,55; 18,23</t>
+          <t>-31,76; 39,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 20,66</t>
+          <t>-25,45; 53,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 39,38</t>
+          <t>-28,57; 45,49</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-35,4; 16,7</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-25,94; 28,03</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-35,39; 21,46</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-5,86</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,27</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-1,9</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 9,49</t>
+          <t>-21,27; 9,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 13,2</t>
+          <t>-14,96; 16,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 12,58</t>
+          <t>-12,73; 18,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 13,36</t>
+          <t>-9,05; 17,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 8,22</t>
+          <t>-9,29; 18,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 9,11</t>
+          <t>-20,73; 8,37</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-9,64; 10,35</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 14,09</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-12,01; 8,6</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>-13,07%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>-11,17%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-4,16%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,28; 30,92</t>
+          <t>-45,64; 33,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 43,64</t>
+          <t>-31,97; 54,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 27,82</t>
+          <t>-27,85; 60,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 29,74</t>
+          <t>-15,5; 40,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 19,42</t>
+          <t>-16,3; 41,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 22,14</t>
+          <t>-34,69; 18,88</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-19,42; 26,26</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-14,2; 35,07</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-23,51; 21,54</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>-11,37</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>-3,18</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-6,6</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 11,04</t>
+          <t>-23,78; 17,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 18,77</t>
+          <t>-15,7; 22,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 13,47</t>
+          <t>-21,57; 18,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 20,49</t>
+          <t>-31,64; 7,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 8,38</t>
+          <t>-16,33; 22,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 15,18</t>
+          <t>-21,25; 19,67</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-19,59; 7,65</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-10,0; 15,98</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-14,34; 11,62</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-7,29%</t>
+          <t>-7,22%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,98%</t>
+          <t>-2,64%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>-20,08%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>-5,62%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-14,08%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7,89%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-2,72%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-42,15; 37,18</t>
+          <t>-48,6; 61,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,28; 64,19</t>
+          <t>-32,1; 80,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 35,42</t>
+          <t>-43,35; 66,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 50,65</t>
+          <t>-47,79; 18,27</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 23,47</t>
+          <t>-24,98; 50,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 42,65</t>
+          <t>-33,85; 43,98</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-36,47; 19,29</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-19,09; 40,71</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-26,64; 30,89</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>13,75</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,46</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>9,71</t>
+          <t>11,78</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>8,89</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 17,39</t>
+          <t>-18,55; 24,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 28,98</t>
+          <t>-15,59; 29,98</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 9,09</t>
+          <t>-26,18; 17,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 23,49</t>
+          <t>-26,64; 16,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 10,59</t>
+          <t>-12,21; 31,86</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 22,95</t>
+          <t>-9,08; 34,62</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-16,8; 13,76</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-6,15; 25,31</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-11,62; 22,07</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>48,25%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-13,92%</t>
+          <t>-17,14%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>-12,55%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-4,61%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>24,5%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-5,33%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>20,61%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 82,22</t>
+          <t>-39,92; 101,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 140,17</t>
+          <t>-34,36; 111,75</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-45,82; 22,97</t>
+          <t>-56,43; 67,99</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-33,0; 58,31</t>
+          <t>-46,75; 44,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-30,62; 33,54</t>
+          <t>-19,84; 86,83</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 67,96</t>
+          <t>-16,05; 95,89</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-34,11; 40,54</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-11,82; 75,54</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-23,78; 65,56</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-2,08</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,74</t>
+          <t>-11,74; 5,83</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 7,51</t>
+          <t>-10,43; 8,17</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 4,17</t>
+          <t>-13,06; 6,62</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 5,2</t>
+          <t>-8,41; 5,17</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,97</t>
+          <t>-5,33; 9,1</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,7</t>
+          <t>-8,07; 6,73</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-8,5; 2,79</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 6,19</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-7,99; 4,66</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-4,75%</t>
+          <t>-8,14%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>-2,94%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>-8,25%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>-3,75%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>-1,37%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-5,98%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-4,93%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 15,51</t>
+          <t>-27,07; 16,69</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 24,58</t>
+          <t>-23,76; 23,07</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 10,15</t>
+          <t>-30,88; 18,97</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 13,01</t>
+          <t>-17,2; 12,76</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 7,89</t>
+          <t>-10,98; 21,34</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 12,16</t>
+          <t>-16,68; 16,06</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-18,72; 6,9</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 15,65</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-18,08; 11,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
